--- a/data/outputs/management_elsevier/49.xlsx
+++ b/data/outputs/management_elsevier/49.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS32"/>
+  <dimension ref="A1:BU32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -907,6 +917,12 @@
           <t>2-s2.0-84949566089</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>404</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1125,6 +1141,12 @@
         <is>
           <t>2-s2.0-84949626288</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>3009</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1335,6 +1357,12 @@
           <t>2-s2.0-84949627143</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1241</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1580,12 @@
           <t>2-s2.0-84949624675</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1594</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,6 +1807,12 @@
           <t>2-s2.0-84949626562</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>6221</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1986,6 +2026,12 @@
           <t>2-s2.0-84949546820</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1304</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2200,6 +2246,12 @@
         <is>
           <t>2-s2.0-84949623212</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>2635</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2400,6 +2452,12 @@
           <t>2-s2.0-84948571934</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>941</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2615,6 +2673,12 @@
           <t>2-s2.0-84948587341</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>995</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2830,6 +2894,12 @@
           <t>2-s2.0-84948568850</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1262</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3045,6 +3115,12 @@
           <t>2-s2.0-84948572318</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2052</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3271,6 +3347,12 @@
         <is>
           <t>2-s2.0-84948585988</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>1737</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3487,6 +3569,12 @@
           <t>2-s2.0-84948567456</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1449</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3705,6 +3793,12 @@
         <is>
           <t>2-s2.0-84948570636</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>4160</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -3921,6 +4015,12 @@
           <t>2-s2.0-84948582188</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2408</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4144,6 +4244,12 @@
           <t>2-s2.0-84948564754</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1631</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4370,6 +4476,12 @@
         <is>
           <t>2-s2.0-84948576529</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>17758</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -4564,6 +4676,12 @@
           <t>2-s2.0-84931281519</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84931010479</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1997</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5015,6 +5139,12 @@
         <is>
           <t>2-s2.0-84930925384</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>4172</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -5225,6 +5355,12 @@
           <t>2-s2.0-84930931663</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2532</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5438,6 +5574,12 @@
           <t>2-s2.0-84931004168</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2521</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5650,6 +5792,12 @@
         <is>
           <t>2-s2.0-84930928117</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>1379</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -5860,6 +6008,12 @@
           <t>2-s2.0-84930930335</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2381</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6070,6 +6224,12 @@
         <is>
           <t>2-s2.0-85027949760</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>2099</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -6264,6 +6424,12 @@
           <t>2-s2.0-84924300055</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>422</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6481,6 +6647,12 @@
           <t>2-s2.0-84924308290</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>4175</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6699,6 +6871,12 @@
         <is>
           <t>2-s2.0-84924340907</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>2875</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -6909,6 +7087,12 @@
           <t>2-s2.0-85027958391</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>5933</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7134,6 +7318,12 @@
           <t>2-s2.0-85027944338</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>5833</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7347,6 +7537,12 @@
           <t>2-s2.0-85027929536</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2196</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
